--- a/data/grade.xlsx
+++ b/data/grade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\redaExcel\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_for_learning\JAVA\ElectiveSystem\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A43D9F5-B977-4874-B619-5F01C9981894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6B7BA-A070-45F9-A47D-E69E56143FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>学号</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>S123456</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -995,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,8 +1017,30 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
